--- a/biology/Zoologie/Diblemma_donisthorpei/Diblemma_donisthorpei.xlsx
+++ b/biology/Zoologie/Diblemma_donisthorpei/Diblemma_donisthorpei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diblemma donisthorpei, unique représentant du genre Diblemma, est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diblemma donisthorpei, unique représentant du genre Diblemma, est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1]. Elle se rencontre sur Silhouette[2].
-Elle a été observée en premier dans une serre chaude aux jardins botaniques royaux de Kew en Grande-Bretagne puis à Papiliorama en Suisse[1],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre sur Silhouette.
+Elle a été observée en premier dans une serre chaude aux jardins botaniques royaux de Kew en Grande-Bretagne puis à Papiliorama en Suisse.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure un pouce[3]. Cette espèce possède deux yeux[3]
-Diblemma donisthorpei mesure de 1,37 à 1,44 mm[2]. Le corps est brun orangé et les pattes jaunes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure un pouce. Cette espèce possède deux yeux
+Diblemma donisthorpei mesure de 1,37 à 1,44 mm. Le corps est brun orangé et les pattes jaunes.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par O. Pickard-Cambridge en 1909.
-Ce genre a été décrit par O. Pickard-Cambridge en 1909 dans les Dysderidae. Il est placé en synonymie avec Opopaea par Shear en 1978[5].
-Il est relevé de synonymie par Saaristo en 2001[2].
+Ce genre a été décrit par O. Pickard-Cambridge en 1909 dans les Dysderidae. Il est placé en synonymie avec Opopaea par Shear en 1978.
+Il est relevé de synonymie par Saaristo en 2001.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Horace Donisthorpe[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Horace Donisthorpe.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1909 : « On new and rare British Arachnida, noted and observed in 1907. » Proceedings of the Dorset Natural History Field Club, vol. 29, p. 161-194 (texte intégral).</t>
         </is>
